--- a/biology/Histoire de la zoologie et de la botanique/Joseph_Anton_Böhm/Joseph_Anton_Böhm.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Joseph_Anton_Böhm/Joseph_Anton_Böhm.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Joseph_Anton_B%C3%B6hm</t>
+          <t>Joseph_Anton_Böhm</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Joseph Anton Böhm est un botaniste autrichien, né le 13 mars 1831 à Groß Gerungs et mort le 2 décembre 1893 à Vienne.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Joseph_Anton_B%C3%B6hm</t>
+          <t>Joseph_Anton_Böhm</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il étudie auprès d’Eduard Fenzl (1808-1879) et de Franz Unger (1800-1870) à Vienne. Il enseigne d’abord à l’école de commerce de la ville puis la botanique à partir de 1869. Il découvre la circulation de l’eau dans les cellules végétales.
 </t>
